--- a/output.xlsx
+++ b/output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHISHEK\Downloads\eclipse-jee-2023-09-R-win32-x86_64\eclipse\githubWS_21Dec\Naukri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHISHEK\Github\SeleniumFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FECDFCA-3692-4152-8A09-50CB82239B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AF4C8-E7CA-41E2-A60E-A5C9055F1D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B132" sqref="A1:C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
